--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravindra prasad\Documents\UiPath\GoogleSearchProcess-RE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69574374-0F1F-49E9-ABC7-15681070B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573DAB3A-DB5B-4BC9-A63B-1EC2C3C11A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -158,21 +158,12 @@
     <t>URL</t>
   </si>
   <si>
-    <t>FilePath</t>
-  </si>
-  <si>
-    <t>C:\Users\ravindra prasad\Documents\UiPath\GoogleSearchProcess-RE\Data\Input\Activity.txt</t>
-  </si>
-  <si>
     <t>GoogleSearchQueue</t>
   </si>
   <si>
     <t>ReportPath</t>
   </si>
   <si>
-    <t>C:\Users\ravindra prasad\Documents\UiPath\GoogleSearchProcess-RE\Data\Output\CompanyReport.xlsx</t>
-  </si>
-  <si>
     <t>Email_Id</t>
   </si>
   <si>
@@ -186,6 +177,12 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>CompanyReport.xlsx</t>
+  </si>
+  <si>
+    <t>InputPath</t>
   </si>
 </sst>
 </file>
@@ -562,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -612,10 +609,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -626,7 +623,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -649,33 +646,26 @@
         <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1664,7 +1654,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,7 +2829,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2887,7 +2876,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
